--- a/excel_templates/utilities-template.xlsx
+++ b/excel_templates/utilities-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Apartment</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>MAY</t>
+  </si>
+  <si>
+    <t>15/8/2020</t>
+  </si>
+  <si>
+    <t>Example</t>
   </si>
 </sst>
 </file>
@@ -100,12 +106,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +179,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +486,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,7 +498,7 @@
     <col min="21" max="21" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -470,73 +512,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="15.75">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15">
+        <v>103</v>
+      </c>
+      <c r="D2" s="16">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="22" customFormat="1" ht="15.75">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
       <c r="C4" s="4"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3"/>

--- a/excel_templates/utilities-template.xlsx
+++ b/excel_templates/utilities-template.xlsx
@@ -12,19 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Selections" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="apartments">Sheet2!$D$5:$D$19</definedName>
-    <definedName name="utilitities_type">Sheet2!$B$6:$B$7</definedName>
+    <definedName name="apartments">Selections!$D$5:$D$19</definedName>
+    <definedName name="firstname">[1]Sheet2!$A$1:$A$20</definedName>
+    <definedName name="utilitities_type">Selections!$B$6:$B$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Apartment</t>
   </si>
@@ -60,6 +64,21 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Separate</t>
   </si>
 </sst>
 </file>
@@ -69,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,23 +109,53 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="VNI-Times"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="VNI-Times"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,18 +164,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="4"/>
+        <bgColor theme="4" tint="-0.24994659260841701"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,62 +216,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -218,6 +311,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Gilbert  </v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Eleanora  </v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Casimira  </v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Mozell  </v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Jamar  </v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Clyde  </v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Roseanne  </v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Karleen  </v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Efrain  </v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Drucilla  </v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Holli  </v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Cathie  </v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Phyllis  </v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Julieann  </v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Willis  </v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Danial  </v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Temeka  </v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Elliot  </v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Daria  </v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Brittaney  </v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,294 +691,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" ht="15.75">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15">
+      <c r="D3" s="8">
         <v>103</v>
       </c>
-      <c r="D2" s="16">
+      <c r="E3" s="9">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="22" customFormat="1" ht="15.75">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
+  <mergeCells count="2">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:A18"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B18">
+      <formula1>utilitities_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
       <formula1>apartments</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$6:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -781,98 +986,98 @@
       <selection activeCell="D5" sqref="D5:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4">
-      <c r="D4" s="8" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="7">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="7">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="7">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="D11" s="7">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="7">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="7">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="7">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="7">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="D16" s="7">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="7">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="7">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="7">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
         <v>402</v>
       </c>
     </row>
